--- a/program_files/account_meta1.xlsx
+++ b/program_files/account_meta1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1595\Desktop\audit_tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1595\Desktop\audit_tools\program_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC4960-CE79-473F-9A70-7D12EB7DC228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C160F3-D543-4428-B0E1-9B1977D639D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企业会计准则" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="411">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1535,6 +1535,130 @@
   </si>
   <si>
     <t>审定上期发生额单元格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期初数行偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期初数行索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期初数列索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附注表格标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期末数行索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期末数行偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期末数列索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期末数列偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定期初数列偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定上期发生额行索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定上期发生额行偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定上期发生额列索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定上期发生额列偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定发生额行索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定发生额行偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定发生额列索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定发生额列偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年初余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本年年末余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全年发生额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前所得税费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1575,12 +1699,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1595,16 +1731,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1879,24 +2027,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:AB138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="I49" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.4140625" customWidth="1"/>
-    <col min="3" max="3" width="6.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="23.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.4140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.9140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,23 +2080,74 @@
       <c r="E1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1944,17 +2163,44 @@
       <c r="E2">
         <v>1001</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1970,8 +2216,35 @@
       <c r="E3">
         <v>100101</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1987,8 +2260,35 @@
       <c r="E4">
         <v>100102</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2005,7 +2305,7 @@
         <v>100103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2022,7 +2322,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2038,17 +2338,17 @@
       <c r="E7">
         <v>1150</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2064,17 +2364,44 @@
       <c r="E8">
         <v>1121</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2090,17 +2417,44 @@
       <c r="E9">
         <v>1122</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2116,17 +2470,44 @@
       <c r="E10">
         <v>1123</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2143,7 +2524,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2160,7 +2541,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2176,17 +2557,44 @@
       <c r="E13">
         <v>1221</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2202,17 +2610,44 @@
       <c r="E14">
         <v>1400</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2228,17 +2663,17 @@
       <c r="E15">
         <v>1151</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2254,17 +2689,17 @@
       <c r="E16">
         <v>1934</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2280,17 +2715,44 @@
       <c r="E17">
         <v>1330</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2307,7 +2769,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2324,7 +2786,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2340,17 +2802,17 @@
       <c r="E20">
         <v>1531</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2366,17 +2828,17 @@
       <c r="E21">
         <v>1511</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2392,17 +2854,17 @@
       <c r="E22">
         <v>1521</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2418,17 +2880,44 @@
       <c r="E23">
         <v>1601</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K23" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2444,17 +2933,44 @@
       <c r="E24">
         <v>1604</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2471,7 +2987,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2488,7 +3004,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2504,17 +3020,17 @@
       <c r="E27">
         <v>1621</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2530,17 +3046,17 @@
       <c r="E28">
         <v>1631</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2556,17 +3072,44 @@
       <c r="E29">
         <v>1701</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2582,17 +3125,17 @@
       <c r="E30">
         <v>1941</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2608,17 +3151,17 @@
       <c r="E31">
         <v>1711</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2634,17 +3177,44 @@
       <c r="E32">
         <v>1801</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2660,17 +3230,17 @@
       <c r="E33">
         <v>1811</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2686,17 +3256,17 @@
       <c r="E34">
         <v>1921</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2712,17 +3282,44 @@
       <c r="E35">
         <v>2001</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2739,7 +3336,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2755,17 +3352,17 @@
       <c r="E37">
         <v>2250</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2781,17 +3378,17 @@
       <c r="E38">
         <v>2201</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2807,17 +3404,44 @@
       <c r="E39">
         <v>2202</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2833,17 +3457,44 @@
       <c r="E40">
         <v>2203</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2859,17 +3510,44 @@
       <c r="E41">
         <v>2211</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2885,17 +3563,44 @@
       <c r="E42">
         <v>2221</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2912,7 +3617,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2929,7 +3634,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2945,17 +3650,44 @@
       <c r="E45">
         <v>2241</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2971,17 +3703,17 @@
       <c r="E46">
         <v>2251</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2997,17 +3729,17 @@
       <c r="E47">
         <v>2431</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3023,17 +3755,17 @@
       <c r="E48">
         <v>2441</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3049,17 +3781,17 @@
       <c r="E49">
         <v>2501</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3075,17 +3807,17 @@
       <c r="E50">
         <v>2502</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3101,17 +3833,17 @@
       <c r="E51">
         <v>250201</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3127,17 +3859,17 @@
       <c r="E52">
         <v>250202</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3153,17 +3885,17 @@
       <c r="E53">
         <v>2701</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3180,7 +3912,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3197,7 +3929,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3213,17 +3945,17 @@
       <c r="E56">
         <v>2801</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3239,17 +3971,17 @@
       <c r="E57">
         <v>2252</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3265,17 +3997,17 @@
       <c r="E58">
         <v>2901</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3291,17 +4023,17 @@
       <c r="E59">
         <v>2351</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3318,7 +4050,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3334,17 +4066,44 @@
       <c r="E61">
         <v>3001</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>0</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3360,17 +4119,17 @@
       <c r="E62">
         <v>3351</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3386,17 +4145,17 @@
       <c r="E63">
         <v>335101</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3412,17 +4171,17 @@
       <c r="E64">
         <v>335102</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3438,17 +4197,17 @@
       <c r="E65">
         <v>3002</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3464,17 +4223,17 @@
       <c r="E66">
         <v>3201</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3490,17 +4249,17 @@
       <c r="E67">
         <v>3350</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3516,17 +4275,17 @@
       <c r="E68">
         <v>3301</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3542,17 +4301,44 @@
       <c r="E69">
         <v>3101</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O69" s="6">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>0</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3568,17 +4354,44 @@
       <c r="E70">
         <v>3104</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K70" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M70" s="6">
+        <v>0</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O70" s="6">
+        <v>0</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>0</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="S70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3595,7 +4408,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3612,7 +4425,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3629,7 +4442,7 @@
         <v>314102</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3646,7 +4459,7 @@
         <v>314103</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3663,7 +4476,7 @@
         <v>314106</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3680,7 +4493,7 @@
         <v>314104</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3697,7 +4510,7 @@
         <v>314105</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3714,7 +4527,7 @@
         <v>314107</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3731,7 +4544,7 @@
         <v>314108</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3748,7 +4561,7 @@
         <v>314109</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3765,7 +4578,7 @@
         <v>314110</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3782,7 +4595,7 @@
         <v>314111</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3798,17 +4611,17 @@
       <c r="E83">
         <v>5001</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3824,8 +4637,35 @@
       <c r="E84">
         <v>500101</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T84" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="U84" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="V84" s="6">
+        <v>0</v>
+      </c>
+      <c r="W84" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3841,8 +4681,35 @@
       <c r="E85">
         <v>500102</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T85" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="U85" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="V85" s="6">
+        <v>0</v>
+      </c>
+      <c r="W85" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3858,17 +4725,18 @@
       <c r="E86">
         <v>5401</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB86" s="6"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3884,8 +4752,35 @@
       <c r="E87">
         <v>540101</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T87" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="U87" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="V87" s="6">
+        <v>0</v>
+      </c>
+      <c r="W87" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X87" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3901,8 +4796,35 @@
       <c r="E88">
         <v>540102</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T88" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="U88" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="V88" s="6">
+        <v>0</v>
+      </c>
+      <c r="W88" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X88" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3918,17 +4840,44 @@
       <c r="E89">
         <v>5403</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T89" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="V89" s="6">
+        <v>0</v>
+      </c>
+      <c r="W89" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3944,17 +4893,44 @@
       <c r="E90">
         <v>5601</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T90" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U90" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="V90" s="6">
+        <v>0</v>
+      </c>
+      <c r="W90" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X90" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3970,17 +4946,44 @@
       <c r="E91">
         <v>5602</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T91" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U91" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="V91" s="6">
+        <v>0</v>
+      </c>
+      <c r="W91" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3996,17 +4999,44 @@
       <c r="E92">
         <v>5603</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U92" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="V92" s="6">
+        <v>0</v>
+      </c>
+      <c r="W92" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4022,8 +5052,9 @@
       <c r="E93">
         <v>5701</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB93" s="6"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4039,17 +5070,18 @@
       <c r="E94">
         <v>5111</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB94" s="6"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4065,17 +5097,18 @@
       <c r="E95">
         <v>5201</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB95" s="6"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4091,17 +5124,18 @@
       <c r="E96">
         <v>520101</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB96" s="6"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4117,17 +5151,18 @@
       <c r="E97">
         <v>5203</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB97" s="6"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4143,17 +5178,44 @@
       <c r="E98">
         <v>5202</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T98" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="U98" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="V98" s="6">
+        <v>0</v>
+      </c>
+      <c r="W98" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z98" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4169,17 +5231,18 @@
       <c r="E99">
         <v>5301</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB99" s="6"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4195,17 +5258,18 @@
       <c r="E100">
         <v>5711</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AB100" s="6"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4221,17 +5285,44 @@
       <c r="E101">
         <v>5801</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T101" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U101" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="V101" s="6">
+        <v>0</v>
+      </c>
+      <c r="W101" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z101" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB101" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4247,17 +5338,17 @@
       <c r="E102">
         <v>5811</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4273,17 +5364,17 @@
       <c r="E103">
         <v>5812</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4300,7 +5391,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4317,7 +5408,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4333,17 +5424,17 @@
       <c r="E106">
         <v>5551</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4359,17 +5450,17 @@
       <c r="E107">
         <v>5552</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4386,7 +5477,7 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4403,7 +5494,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4420,7 +5511,7 @@
         <v>5555</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4437,7 +5528,7 @@
         <v>5556</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4831,7 +5922,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J138" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4840,1116 +5930,1658 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F20F27-4FE9-4A70-AEF6-CB74250635A6}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="5.58203125" customWidth="1"/>
-    <col min="8" max="8" width="5.9140625" customWidth="1"/>
-    <col min="9" max="10" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" style="4" customWidth="1"/>
+    <col min="11" max="26" width="8.6640625" style="6"/>
+    <col min="27" max="27" width="17" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="4">
         <v>1001</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="4">
         <v>100101</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="4">
         <v>100102</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4">
         <v>100103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="4">
         <v>1101</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="4">
         <v>1121</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="4">
         <v>1122</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="4">
         <v>1123</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="4">
         <v>1131</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="4">
         <v>1132</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="4">
         <v>1221</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="4">
         <v>1400</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="4">
         <v>140001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="4">
         <v>140002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="4">
         <v>140003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="4">
         <v>140004</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="4">
         <v>1330</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="4">
         <v>1501</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="4">
         <v>1511</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="4">
         <v>1601</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K21" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="4">
         <v>1602</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="D23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="4">
         <v>9003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="4">
         <v>1604</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="4">
         <v>1605</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="4">
         <v>1606</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="4">
         <v>1621</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="4">
         <v>1701</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="4">
         <v>1941</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="4">
         <v>1801</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="4">
         <v>1921</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="4">
         <v>2001</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="4">
         <v>2201</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="4">
         <v>2202</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>145</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="4">
         <v>2203</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D36" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="4">
         <v>2211</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="4">
         <v>2221</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="4">
         <v>2231</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>146</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="4">
         <v>2232</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="4">
         <v>2241</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D41" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="4">
         <v>2441</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="4">
         <v>2501</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D43" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="4">
         <v>2701</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="4">
         <v>2401</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D45" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="4">
         <v>2351</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>A45+1</f>
         <v>45</v>
@@ -5957,26 +7589,53 @@
       <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="4">
         <v>3001</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" ref="A47:A98" si="0">A46+1</f>
         <v>46</v>
@@ -5984,26 +7643,26 @@
       <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D47" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="4">
         <v>3002</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6011,26 +7670,53 @@
       <c r="B48" t="s">
         <v>68</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D48" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="4">
         <v>3101</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6038,26 +7724,53 @@
       <c r="B49" t="s">
         <v>69</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D49" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="4">
         <v>3104</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6065,26 +7778,26 @@
       <c r="B50" t="s">
         <v>81</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="4">
         <v>5001</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6092,17 +7805,44 @@
       <c r="B51" t="s">
         <v>82</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="4">
         <v>500101</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="U51" s="6">
+        <v>0</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W51" s="6">
+        <v>0</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6110,17 +7850,44 @@
       <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D52" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="4">
         <v>500102</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="U52" s="6">
+        <v>0</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W52" s="6">
+        <v>0</v>
+      </c>
+      <c r="X52" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6128,26 +7895,26 @@
       <c r="B53" t="s">
         <v>84</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="4">
         <v>5401</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6155,17 +7922,44 @@
       <c r="B54" t="s">
         <v>85</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="4">
         <v>540101</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="U54" s="6">
+        <v>0</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W54" s="6">
+        <v>1</v>
+      </c>
+      <c r="X54" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6173,17 +7967,44 @@
       <c r="B55" t="s">
         <v>86</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D55" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="4">
         <v>540102</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="U55" s="6">
+        <v>0</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W55" s="6">
+        <v>1</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6191,26 +8012,53 @@
       <c r="B56" t="s">
         <v>87</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D56" t="s">
-        <v>171</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="4">
         <v>5403</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="U56" s="6">
+        <v>0</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W56" s="6">
+        <v>0</v>
+      </c>
+      <c r="X56" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6218,17 +8066,17 @@
       <c r="B57" t="s">
         <v>147</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D57" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="4">
         <v>540301</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6236,17 +8084,17 @@
       <c r="B58" t="s">
         <v>148</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D58" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="4">
         <v>540302</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6254,17 +8102,17 @@
       <c r="B59" t="s">
         <v>149</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D59" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="4">
         <v>540303</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6272,17 +8120,17 @@
       <c r="B60" t="s">
         <v>150</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D60" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="4">
         <v>540304</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6290,17 +8138,17 @@
       <c r="B61" t="s">
         <v>151</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D61" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="4">
         <v>540305</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6308,17 +8156,17 @@
       <c r="B62" t="s">
         <v>152</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="4">
         <v>540306</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6326,17 +8174,17 @@
       <c r="B63" t="s">
         <v>153</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D63" t="s">
-        <v>171</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="4">
         <v>540307</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6344,26 +8192,53 @@
       <c r="B64" t="s">
         <v>88</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D64" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="4">
         <v>5601</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="U64" s="6">
+        <v>0</v>
+      </c>
+      <c r="V64" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W64" s="6">
+        <v>0</v>
+      </c>
+      <c r="X64" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y64" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6371,17 +8246,17 @@
       <c r="B65" t="s">
         <v>154</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="4">
         <v>560101</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6389,17 +8264,17 @@
       <c r="B66" t="s">
         <v>155</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="4">
         <v>560102</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6407,26 +8282,53 @@
       <c r="B67" t="s">
         <v>89</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D67" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="4">
         <v>5602</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="U67" s="6">
+        <v>0</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W67" s="6">
+        <v>0</v>
+      </c>
+      <c r="X67" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y67" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -6434,17 +8336,17 @@
       <c r="B68" t="s">
         <v>156</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D68" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="4">
         <v>560201</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -6452,17 +8354,17 @@
       <c r="B69" t="s">
         <v>157</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D69" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="4">
         <v>560202</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -6470,17 +8372,17 @@
       <c r="B70" t="s">
         <v>158</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D70" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="4">
         <v>560203</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -6488,26 +8390,53 @@
       <c r="B71" t="s">
         <v>90</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="4">
         <v>5603</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T71" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="U71" s="6">
+        <v>0</v>
+      </c>
+      <c r="V71" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W71" s="6">
+        <v>0</v>
+      </c>
+      <c r="X71" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y71" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -6515,17 +8444,17 @@
       <c r="B72" t="s">
         <v>159</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="4">
         <v>560301</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -6533,26 +8462,26 @@
       <c r="B73" t="s">
         <v>93</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D73" t="s">
-        <v>172</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="4">
         <v>5111</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -6560,26 +8489,26 @@
       <c r="B74" t="s">
         <v>97</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D74" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="4">
         <v>5301</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -6587,17 +8516,17 @@
       <c r="B75" t="s">
         <v>160</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D75" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="4">
         <v>530101</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -6605,26 +8534,26 @@
       <c r="B76" t="s">
         <v>98</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D76" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="4">
         <v>5711</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -6632,17 +8561,17 @@
       <c r="B77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D77" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="4">
         <v>571101</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -6650,17 +8579,17 @@
       <c r="B78" t="s">
         <v>162</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D78" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="4">
         <v>571102</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -6668,17 +8597,17 @@
       <c r="B79" t="s">
         <v>163</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D79" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="4">
         <v>571103</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -6686,17 +8615,17 @@
       <c r="B80" t="s">
         <v>164</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D80" t="s">
-        <v>171</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="4">
         <v>571104</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -6704,17 +8633,17 @@
       <c r="B81" t="s">
         <v>165</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D81" t="s">
-        <v>171</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="4">
         <v>571105</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -6722,26 +8651,53 @@
       <c r="B82" t="s">
         <v>99</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D82" t="s">
-        <v>171</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="4">
         <v>5801</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T82" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="U82" s="6">
+        <v>0</v>
+      </c>
+      <c r="V82" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W82" s="6">
+        <v>0</v>
+      </c>
+      <c r="X82" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y82" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -6749,17 +8705,17 @@
       <c r="B83" t="s">
         <v>112</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D83" t="s">
-        <v>172</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" s="4">
         <v>5930</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -6767,17 +8723,17 @@
       <c r="B84" t="s">
         <v>113</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D84" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="4">
         <v>5931</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -6785,14 +8741,14 @@
       <c r="B85" t="s">
         <v>114</v>
       </c>
-      <c r="D85" t="s">
-        <v>171</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" s="4">
         <v>9001</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -6800,14 +8756,14 @@
       <c r="B86" t="s">
         <v>115</v>
       </c>
-      <c r="D86" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="4">
         <v>9022</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -6815,14 +8771,14 @@
       <c r="B87" t="s">
         <v>116</v>
       </c>
-      <c r="D87" t="s">
-        <v>171</v>
-      </c>
-      <c r="E87">
+      <c r="D87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="4">
         <v>9007</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -6830,14 +8786,14 @@
       <c r="B88" t="s">
         <v>117</v>
       </c>
-      <c r="D88" t="s">
-        <v>172</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="4">
         <v>9008</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -6845,14 +8801,14 @@
       <c r="B89" t="s">
         <v>118</v>
       </c>
-      <c r="D89" t="s">
-        <v>172</v>
-      </c>
-      <c r="E89">
+      <c r="D89" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="4">
         <v>9009</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -6860,14 +8816,14 @@
       <c r="B90" t="s">
         <v>119</v>
       </c>
-      <c r="D90" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" s="4">
         <v>9010</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -6875,14 +8831,14 @@
       <c r="B91" t="s">
         <v>121</v>
       </c>
-      <c r="D91" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" s="4">
         <v>9012</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -6890,14 +8846,14 @@
       <c r="B92" t="s">
         <v>174</v>
       </c>
-      <c r="D92" t="s">
-        <v>172</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E92" s="4">
         <v>9013</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -6905,14 +8861,14 @@
       <c r="B93" t="s">
         <v>123</v>
       </c>
-      <c r="D93" t="s">
-        <v>172</v>
-      </c>
-      <c r="E93">
+      <c r="D93" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E93" s="4">
         <v>9102</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -6920,14 +8876,14 @@
       <c r="B94" t="s">
         <v>124</v>
       </c>
-      <c r="D94" t="s">
-        <v>172</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" s="4">
         <v>9104</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="0"/>
         <v>94</v>
@@ -6935,14 +8891,14 @@
       <c r="B95" t="s">
         <v>125</v>
       </c>
-      <c r="D95" t="s">
-        <v>172</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E95" s="4">
         <v>9105</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -6950,10 +8906,10 @@
       <c r="B96" t="s">
         <v>134</v>
       </c>
-      <c r="D96" t="s">
-        <v>172</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" s="4">
         <v>9126</v>
       </c>
     </row>
@@ -6965,10 +8921,10 @@
       <c r="B97" t="s">
         <v>66</v>
       </c>
-      <c r="D97" t="s">
-        <v>172</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="4">
         <v>9127</v>
       </c>
     </row>
@@ -6980,10 +8936,10 @@
       <c r="B98" t="s">
         <v>131</v>
       </c>
-      <c r="D98" t="s">
-        <v>172</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98" s="4">
         <v>9128</v>
       </c>
     </row>
